--- a/data/law_structure.xlsx
+++ b/data/law_structure.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="保障中小企业款项支付条例" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="实施《中华人民共和国反外国制裁法》的规定" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="涉税专业服务管理办法(试行)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="酒泉市节约用水管理办法" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,15 +463,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>原内容</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>原条款</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>条款</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>条类型</t>
         </is>
@@ -494,15 +500,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>为了促进机关、事业单位和大型企业及时支付中小企业款项，维护中小企业合法权益，优化营商环境，根据《中华人民共和国中小企业促进法》等法律，制定本条例。</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>第1条</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>第1条第1款</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,15 +535,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>机关、事业单位和大型企业采购货物、工程、服务支付中小企业款项，应当遵守本条例。</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>第2条</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>第2条第1款</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -554,15 +570,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>本条例所称中小企业，是指在中华人民共和国境内依法设立，依据国务院批准的中小企业划分标准确定的中型企业、小型企业和微型企业；所称大型企业，是指中小企业以外的企业。</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>第3条第1款</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>第3条第1款</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -584,15 +605,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>中小企业、大型企业依合同订立时的企业规模类型确定。中小企业与机关、事业单位、大型企业订立合同时，应当主动告知其属于中小企业。</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>第3条第2款</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>第3条第2款</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -614,15 +640,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>保障中小企业款项支付工作，应当贯彻落实党和国家的路线方针政策、决策部署，坚持支付主体负责、行业规范自律、政府依法监管、社会协同监督的原则，依法防范和治理拖欠中小企业款项问题。</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>第4条</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>第4条第1款</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -644,15 +675,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>国务院负责中小企业促进工作综合管理的部门对保障中小企业款项支付工作进行综合协调、监督检查。国务院发展改革、财政、住房城乡建设、交通运输、水利、金融管理、国有资产监管、市场监督管理等有关部门应当按照职责分工，负责保障中小企业款项支付相关工作。</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>第5条第1款</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>第5条第1款</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -674,15 +710,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>省、自治区、直辖市人民政府对本行政区域内保障中小企业款项支付工作负总责，加强组织领导、统筹协调，健全制度机制。县级以上地方人民政府负责本行政区域内保障中小企业款项支付的管理工作。</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>第5条第2款</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>第5条第2款</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -704,15 +745,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>县级以上地方人民政府负责中小企业促进工作综合管理的部门和发展改革、财政、住房城乡建设、交通运输、水利、金融管理、国有资产监管、市场监督管理等有关部门应当按照职责分工，负责保障中小企业款项支付相关工作。</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>第5条第3款</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>第5条第3款</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -734,15 +780,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>有关行业协会商会应当按照法律法规和组织章程，加强行业自律管理，规范引导本行业大型企业履行及时支付中小企业款项义务、不得利用优势地位拖欠中小企业款项，为中小企业提供信息咨询、权益保护、纠纷处理等方面的服务，保护中小企业合法权益。</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>第6条第1款</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>第6条第1款</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -764,15 +815,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>鼓励大型企业公开承诺向中小企业采购货物、工程、服务的付款期限与方式。</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>第6条第2款</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>第6条第2款</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -794,15 +850,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>机关、事业单位和大型企业不得要求中小企业接受不合理的付款期限、方式、条件和违约责任等交易条件，不得拖欠中小企业的货物、工程、服务款项。</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>第7条第1款</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>第7条第1款</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,15 +885,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>中小企业应当依法经营，诚实守信，按照合同约定提供合格的货物、工程和服务。</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>第7条第2款</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>第7条第2款</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -854,15 +920,20 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>机关、事业单位使用财政资金从中小企业采购货物、工程、服务，应当严格按照批准的预算执行，不得无预算、超预算开展采购。</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>第8条第1款</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>第8条第1款</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -884,15 +955,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>政府投资项目所需资金应当按照国家有关规定确保落实到位，不得由施工单位垫资建设。</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>第8条第2款</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>第8条第2款</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,15 +990,20 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>机关、事业单位从中小企业采购货物、工程、服务，应当自货物、工程、服务交付之日起30日内支付款项；合同另有约定的，从其约定，但付款期限最长不得超过60日。</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>第9条第1款</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>第9条第1款</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -944,15 +1025,20 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>大型企业从中小企业采购货物、工程、服务，应当自货物、工程、服务交付之日起60日内支付款项；合同另有约定的，从其约定，但应当按照行业规范、交易习惯合理约定付款期限并及时支付款项，不得约定以收到第三方付款作为向中小企业支付款项的条件或者按照第三方付款进度比例支付中小企业款项。</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>第9条第2款</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>第9条第2款</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -974,15 +1060,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>法律、行政法规或者国家有关规定对本条第一款、第二款付款期限另有规定的，从其规定。</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>第9条第3款</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>第9条第3款</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1004,15 +1095,20 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>合同约定采取履行进度结算、定期结算等结算方式的，付款期限应当自双方确认结算金额之日起算。</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>第9条第4款</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>第9条第4款</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1034,15 +1130,20 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>机关、事业单位和大型企业与中小企业约定以货物、工程、服务交付后经检验或者验收合格作为支付中小企业款项条件的，付款期限应当自检验或者验收合格之日起算。</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>第10条第1款</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>第10条第1款</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1064,15 +1165,20 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>合同双方应当在合同中约定明确、合理的检验或者验收期限，并在该期限内完成检验或者验收，法律、行政法规或者国家有关规定对检验或者验收期限另有规定的，从其规定。机关、事业单位和大型企业拖延检验或者验收的，付款期限自约定的检验或者验收期限届满之日起算。</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>第10条第2款</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>第10条第2款</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1094,15 +1200,20 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>机关、事业单位和大型企业使用商业汇票、应收账款电子凭证等非现金支付方式支付中小企业款项的，应当在合同中作出明确、合理约定，不得强制中小企业接受商业汇票、应收账款电子凭证等非现金支付方式，不得利用商业汇票、应收账款电子凭证等非现金支付方式变相延长付款期限。</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>第11条</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>第11条第1款</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1124,15 +1235,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>机关、事业单位和国有大型企业不得强制要求以审计机关的审计结果作为结算依据，法律、行政法规另有规定的除外。</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>第12条</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>第12条第1款</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1154,15 +1270,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>除依法设立的投标保证金、履约保证金、工程质量保证金、农民工工资保证金外，工程建设中不得以任何形式收取其他保证金。保证金的收取比例、方式应当符合法律、行政法规和国家有关规定。</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>第13条第1款</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>第13条第1款</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1184,15 +1305,20 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>机关、事业单位和大型企业不得将保证金限定为现金。中小企业以金融机构出具的保函等提供保证的，机关、事业单位和大型企业应当接受。</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>第13条第2款</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>第13条第2款</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,15 +1340,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>机关、事业单位和大型企业应当依法或者按照合同约定，在保证期限届满后及时与中小企业对收取的保证金进行核算并退还。</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>第13条第3款</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>第13条第3款</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1244,15 +1375,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>机关、事业单位和大型企业不得以法定代表人或者主要负责人变更，履行内部付款流程，或者在合同未作约定的情况下以等待竣工验收备案、决算审计等为由，拒绝或者迟延支付中小企业款项。</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>第14条</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>第14条第1款</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1274,15 +1410,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>机关、事业单位和大型企业与中小企业的交易，部分存在争议但不影响其他部分履行的，对于无争议部分应当履行及时付款义务。</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>第15条</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>第15条第1款</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,15 +1445,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>鼓励、引导、支持商业银行等金融机构增加对中小企业的信贷投放，降低中小企业综合融资成本，为中小企业以应收账款、知识产权、政府采购合同、存货、机器设备等为担保品的融资提供便利。</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>第16条第1款</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>第16条第1款</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1334,15 +1480,20 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>中小企业以应收账款融资的，机关、事业单位和大型企业应当自中小企业提出确权请求之日起30日内确认债权债务关系，支持中小企业融资。</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>第16条第2款</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>第16条第2款</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1364,15 +1515,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>机关、事业单位和大型企业迟延支付中小企业款项的，应当支付逾期利息。双方对逾期利息的利率有约定的，约定利率不得低于合同订立时1年期贷款市场报价利率；未作约定的，按照每日利率万分之五支付逾期利息。</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>第17条</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>第17条第1款</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1394,15 +1550,20 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>机关、事业单位应当于每年3月31日前将上一年度逾期尚未支付中小企业款项的合同数量、金额等信息通过网站、报刊等便于公众知晓的方式公开。</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>第18条第1款</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>第18条第1款</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1424,15 +1585,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>大型企业应当将逾期尚未支付中小企业款项的合同数量、金额等信息纳入企业年度报告，依法通过国家企业信用信息公示系统向社会公示。</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>第18条第2款</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>第18条第2款</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1454,15 +1620,20 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>大型企业应当将保障中小企业款项支付工作情况，纳入企业风险控制与合规管理体系，并督促其全资或者控股子公司及时支付中小企业款项。</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>第19条</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>第19条第1款</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1484,15 +1655,20 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>机关、事业单位和大型企业及其工作人员不得以任何形式对提出付款请求或者投诉的中小企业及其工作人员进行恐吓、打击报复。</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>第20条</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>第20条第1款</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1514,15 +1690,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>县级以上人民政府及其有关部门通过监督检查、函询约谈、督办通报、投诉处理等措施，加大对机关、事业单位和大型企业拖欠中小企业款项的清理力度。</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>第21条</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>第21条第1款</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1544,15 +1725,20 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>县级以上地方人民政府部门应当每年定期将上一年度逾期尚未支付中小企业款项情况按程序报告本级人民政府。事业单位、国有大型企业应当每年定期将上一年度逾期尚未支付中小企业款项情况按程序报其主管部门或者监管部门。</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>第22条第1款</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>第22条第1款</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1574,15 +1760,20 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>县级以上地方人民政府应当每年定期听取本行政区域内保障中小企业款项支付工作汇报，加强督促指导，研究解决突出问题。</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>第22条第2款</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>第22条第2款</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,15 +1795,20 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>省级以上人民政府建立督查制度，对保障中小企业款项支付工作进行监督检查，对政策落实不到位、工作推进不力的部门和地方人民政府主要负责人进行约谈。</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>第23条第1款</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>第23条第1款</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1634,15 +1830,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>县级以上人民政府负责中小企业促进工作综合管理的部门对拖欠中小企业款项的机关、事业单位和大型企业，可以进行函询约谈，对情节严重的，予以督办通报，必要时可以会同拖欠单位上级机关、行业主管部门、监管部门联合进行。</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>第23条第2款</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>第23条第2款</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1664,15 +1865,20 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>省级以上人民政府负责中小企业促进工作综合管理的部门(以下统称受理投诉部门)应当建立便利畅通的渠道，受理对机关、事业单位和大型企业拖欠中小企业款项的投诉。</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>第24条第1款</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>第24条第1款</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,15 +1900,20 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>国务院负责中小企业促进工作综合管理的部门建立国家统一的拖欠中小企业款项投诉平台，加强投诉处理机制建设，与相关部门、地方人民政府信息共享、协同配合。</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>第24条第2款</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>第24条第2款</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1724,15 +1935,20 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>受理投诉部门应当按照“属地管理、分级负责，谁主管谁负责、谁监管谁负责”的原则，自正式受理之日起10个工作日内，按程序将投诉转交有关部门或者地方人民政府指定的部门(以下统称处理投诉部门)处理。</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>第25条第1款</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>第25条第1款</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1754,15 +1970,20 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>处理投诉部门应当自收到投诉材料之日起30日内形成处理结果，以书面形式反馈投诉人，并反馈受理投诉部门。情况复杂或者有其他特殊原因的，经部门负责人批准，可适当延长，但处理期限最长不得超过90日。</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>第25条第2款</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>第25条第2款</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1784,15 +2005,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>被投诉人应当配合处理投诉部门工作。处理投诉部门应当督促被投诉人及时反馈情况。被投诉人未及时反馈或者未按规定反馈的，处理投诉部门应当向其发出督办书；收到督办书仍拒不配合的，处理投诉部门可以约谈、通报被投诉人，并责令整改。</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>第25条第3款</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>第25条第3款</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1814,15 +2040,20 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>投诉人应当与被投诉人存在合同关系，不得虚假、恶意投诉。</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>第25条第4款</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>第25条第4款</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1844,15 +2075,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>受理投诉部门和处理投诉部门的工作人员，对在履行职责中获悉的国家秘密、商业秘密和个人信息负有保密义务。</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>第25条第5款</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>第25条第5款</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1874,15 +2110,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>机关、事业单位和大型企业拖欠中小企业款项依法依规被认定为失信的，受理投诉部门和有关部门按程序将有关失信情况记入相关主体信用记录。情节严重或者造成严重不良社会影响的，将相关信息纳入全国信用信息共享平台和国家企业信用信息公示系统，向社会公示；对机关、事业单位在公务消费、办公用房、经费安排等方面采取必要的限制措施，对大型企业在财政资金支持、投资项目审批、融资获取、市场准入、资质评定、评优评先等方面依法依规予以限制。</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>第26条</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>第26条第1款</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1904,15 +2145,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>审计机关依法对机关、事业单位和国有大型企业支付中小企业款项情况实施审计监督。</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>第27条</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>第27条第1款</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1934,15 +2180,20 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>国家依法开展中小企业发展环境评估和营商环境评价时，应当将保障中小企业款项支付工作情况纳入评估和评价内容。</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>第28条</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>第28条第1款</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1964,15 +2215,20 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>国务院负责中小企业促进工作综合管理的部门依据国务院批准的中小企业划分标准，建立企业规模类型测试平台，提供中小企业规模类型自测服务。</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>第29条第1款</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>第29条第1款</t>
         </is>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,15 +2250,20 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>对中小企业规模类型有争议的，可以向主张为中小企业一方所在地的县级以上地方人民政府负责中小企业促进工作综合管理的部门申请认定。人力资源社会保障、市场监督管理、统计等相关部门应当应认定部门的请求，提供必要的协助。</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>第29条第2款</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>第29条第2款</t>
         </is>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2024,15 +2285,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>国家鼓励法律服务机构为与机关、事业单位和大型企业存在支付纠纷的中小企业提供公益法律服务。</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>第30条第1款</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>第30条第1款</t>
         </is>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2054,15 +2320,20 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>新闻媒体应当开展对保障中小企业款项支付相关法律法规政策的公益宣传，依法加强对机关、事业单位和大型企业拖欠中小企业款项行为的舆论监督。</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>第30条第2款</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>第30条第2款</t>
         </is>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,15 +2355,20 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>机关、事业单位违反本条例，有下列情形之一的，由其上级机关、主管部门责令改正；拒不改正的，对负有责任的领导人员和直接责任人员依法给予处分：</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>第31条第1款</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>第31条第1款</t>
         </is>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2119,15 +2395,20 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>未在规定的期限内支付中小企业货物、工程、服务款项；</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>第31条第1款第1项</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>第31条第1款第1项</t>
         </is>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2154,15 +2435,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>拖延检验、验收；</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>第31条第1款第2项</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>第31条第1款第2项</t>
         </is>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2189,15 +2475,20 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>强制中小企业接受商业汇票、应收账款电子凭证等非现金支付方式，或者利用商业汇票、应收账款电子凭证等非现金支付方式变相延长付款期限；</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>第31条第1款第3项</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>第31条第1款第3项</t>
         </is>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2224,15 +2515,20 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>没有法律、行政法规依据，要求以审计机关的审计结果作为结算依据；</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>第31条第1款第4项</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>第31条第1款第4项</t>
         </is>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2259,15 +2555,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>违法收取保证金，拒绝接受中小企业以金融机构出具的保函等提供保证，或者不及时与中小企业对保证金进行核算并退还；</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>第31条第1款第5项</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>第31条第1款第5项</t>
         </is>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2294,15 +2595,20 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>以法定代表人或者主要负责人变更，履行内部付款流程，或者在合同未作约定的情况下以等待竣工验收备案、决算审计等为由，拒绝或者迟延支付中小企业款项；</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>第31条第1款第6项</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>第31条第1款第6项</t>
         </is>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2329,15 +2635,20 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>未按照规定公开逾期尚未支付中小企业款项信息。</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>第31条第1款第7项</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>第31条第1款第7项</t>
         </is>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2359,15 +2670,20 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>机关、事业单位有下列情形之一的，依法追究责任：</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>第32条第1款</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>第32条第1款</t>
         </is>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2394,15 +2710,20 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>使用财政资金从中小企业采购货物、工程、服务，未按照批准的预算执行；</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>第32条第1款第1项</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>第32条第1款第1项</t>
         </is>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2429,15 +2750,20 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>要求施工单位对政府投资项目垫资建设。</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>第32条第1款第2项</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>第32条第1款第2项</t>
         </is>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2459,15 +2785,20 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>国有大型企业拖欠中小企业款项，造成不良后果或者影响的，对负有责任的国有企业管理人员依法给予处分。</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>第33条第1款</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>第33条第1款</t>
         </is>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2489,15 +2820,20 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>国有大型企业没有法律、行政法规依据，要求以审计机关的审计结果作为结算依据的，由其监管部门责令改正；拒不改正的，对负有责任的国有企业管理人员依法给予处分。</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>第33条第2款</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>第33条第2款</t>
         </is>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2519,15 +2855,20 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>大型企业违反本条例，未按照规定在企业年度报告中公示逾期尚未支付中小企业款项信息或者隐瞒真实情况、弄虚作假的，由市场监督管理部门依法处理。</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>第34条</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>第34条第1款</t>
         </is>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2549,15 +2890,20 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>机关、事业单位和大型企业及其工作人员对提出付款请求或者投诉的中小企业及其工作人员进行恐吓、打击报复，或者有其他滥用职权、玩忽职守、徇私舞弊行为的，对负有责任的领导人员和直接责任人员依法给予处分或者处罚；构成犯罪的，依法追究刑事责任。</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>第35条</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>第35条第1款</t>
         </is>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2579,15 +2925,20 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>部分或者全部使用财政资金的团体组织采购货物、工程、服务支付中小企业款项，参照本条例对机关、事业单位的有关规定执行。</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>第36条第1款</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>第36条第1款</t>
         </is>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2609,15 +2960,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>军队采购货物、工程、服务支付中小企业款项，按照军队的有关规定执行。</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>第36条第2款</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>第36条第2款</t>
         </is>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2639,15 +2995,20 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>本条例自2025年6月1日起施行。</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>第37条</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>第37条第1款</t>
         </is>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2662,7 +3023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2698,15 +3059,4001 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>原内容</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>原条款</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>条款</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>条类型</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>为了规范涉税专业服务行为，保护纳税人合法权益，维护国家税收秩序，促进市场公平竞争，进一步优化营商环境，根据《中华人民共和国税收征收管理法》及其实施细则、《优化营商环境条例》等法律法规和国务院有关决定，制定本办法。</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>为了规范涉税专业服务行为，保护纳税人合法权益，维护国家税收秩序，促进市场公平竞争，进一步优化营商环境，根据《中华人民共和国税收征收管理法》及其实施细则、《优化营商环境条例》等法律法规和国务院有关决定，制定本办法。</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>第1条</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>第1条第1款</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构及涉税服务人员在中华人民共和国境内提供涉税专业服务，适用本办法。</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构及涉税服务人员在中华人民共和国境内提供涉税专业服务，适用本办法。</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>第2条第1款</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>第2条第1款</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>涉税专业服务是指接受委托，利用专业知识和技能，就涉税事项向委托人提供的税务代理等服务。</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>涉税专业服务是指接受委托，利用专业知识和技能，就涉税事项向委托人提供的税务代理等服务。</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>第2条第2款</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>第2条第2款</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构是指税务师事务所和提供涉税专业服务的会计师事务所、律师事务所、代理记账机构、税务代理公司、财税类咨询公司以及其他提供涉税专业服务的机构。</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构是指税务师事务所和提供涉税专业服务的会计师事务所、律师事务所、代理记账机构、税务代理公司、财税类咨询公司以及其他提供涉税专业服务的机构。</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>第2条第3款</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>第2条第3款</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>涉税服务人员是指在涉税专业服务机构任职或者受雇提供涉税专业服务的人员，以及依照法律法规、部门规章规定提供涉税专业服务的其他人员。</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>涉税服务人员是指在涉税专业服务机构任职或者受雇提供涉税专业服务的人员，以及依照法律法规、部门规章规定提供涉税专业服务的其他人员。</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>第2条第4款</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>第2条第4款</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>税务机关应当建立健全以实名制为基础的涉税专业服务信用管理与风险管理机制，坚持管理与服务并重，规范和支持涉税专业服务行业按市场化原则为纳税人提供个性化服务。</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>税务机关应当建立健全以实名制为基础的涉税专业服务信用管理与风险管理机制，坚持管理与服务并重，规范和支持涉税专业服务行业按市场化原则为纳税人提供个性化服务。</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>第3条</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>第3条第1款</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构及涉税服务人员提供涉税专业服务，应当坚持独立、客观、公正、规范的原则，遵守法律法规及相关规定，遵循涉税专业服务业务规范，恪守职业道德。</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构及涉税服务人员提供涉税专业服务，应当坚持独立、客观、公正、规范的原则，遵守法律法规及相关规定，遵循涉税专业服务业务规范，恪守职业道德。</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>第4条</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>第4条第1款</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>税务机关应当严格规范税务人员与涉税专业服务机构及涉税服务人员的交往行为。</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>税务机关应当严格规范税务人员与涉税专业服务机构及涉税服务人员的交往行为。</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>第5条第1款</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>第5条第1款</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>税务机关及其税务工作人员不得参与或者违规干预涉税专业服务机构经营活动。</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>税务机关及其税务工作人员不得参与或者违规干预涉税专业服务机构经营活动。</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>第5条第2款</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>第5条第2款</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>税务机关及其税务工作人员对在涉税专业服务管理过程中知悉的商业秘密或者个人隐私，应当依法予以保密。</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>税务机关及其税务工作人员对在涉税专业服务管理过程中知悉的商业秘密或者个人隐私，应当依法予以保密。</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>第5条第3款</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>第5条第3款</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>税务机关应当严格落实监督管理职责，积极发挥行业协会自律监督和社会监督作用，加强对税务师行业党的建设的指导。</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>税务机关应当严格落实监督管理职责，积极发挥行业协会自律监督和社会监督作用，加强对税务师行业党的建设的指导。</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>第6条</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>第6条第1款</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>涉税专业服务包括以下内容：</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>涉税专业服务包括以下内容：</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>第7条第1款</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>第7条第1款</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>纳税申报代办；</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>纳税申报代办；</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>第7条第1款第1项</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>第7条第1款第1项</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>一般税务咨询；</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>一般税务咨询；</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>第7条第1款第2项</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>第7条第1款第2项</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>专业税务顾问；</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>专业税务顾问；</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>第7条第1款第3项</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>第7条第1款第3项</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>税务合规计划；</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>税务合规计划；</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>第7条第1款第4项</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>第7条第1款第4项</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>涉税鉴证；</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>涉税鉴证；</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>第7条第1款第5项</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>第7条第1款第5项</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>纳税情况审查；</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>纳税情况审查；</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>第7条第1款第6项</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>第7条第1款第6项</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>其他税务事项代办；</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>其他税务事项代办；</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>第7条第1款第7项</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>第7条第1款第7项</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>其他税务代理。</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>其他税务代理。</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>第7条第1款第8项</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>第7条第1款第8项</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>税务机关对涉税专业服务实行分类管理。涉税专业服务包括一般涉税专业服务和特定涉税专业服务。</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>税务机关对涉税专业服务实行分类管理。涉税专业服务包括一般涉税专业服务和特定涉税专业服务。</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>第8条第1款</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>第8条第1款</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>本办法第七条第一项、第二项、第七项、第八项为一般涉税专业服务，第七条第三项至第六项为特定涉税专业服务。</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>本办法第七条第一项、第二项、第七项、第八项为一般涉税专业服务，第七条第三项至第六项为特定涉税专业服务。</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>第8条第2款</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>第8条第2款</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>从事涉税专业服务应当具有相应的税收专业知识和技能。</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>从事涉税专业服务应当具有相应的税收专业知识和技能。</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>第9条</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>第9条第1款</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>税务机关对税务师事务所实施行政登记管理。</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>税务机关对税务师事务所实施行政登记管理。</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>第10条</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>第10条第1款</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>税务机关应当建立健全涉税专业服务管理工作机制，对涉税专业服务机构及涉税服务人员实行涉税业务的集中管理与服务。</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>税务机关应当建立健全涉税专业服务管理工作机制，对涉税专业服务机构及涉税服务人员实行涉税业务的集中管理与服务。</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>第11条第1款</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>第11条第1款</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>税务机关应当加强涉税专业服务管理信息化建设，提高管理与服务的智能化、数字化水平，实现涉税专业服务数据集成、智能分析、风险提示、实时监控、信息推送等功能。</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>税务机关应当加强涉税专业服务管理信息化建设，提高管理与服务的智能化、数字化水平，实现涉税专业服务数据集成、智能分析、风险提示、实时监控、信息推送等功能。</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>第11条第2款</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>第11条第2款</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>税务机关应当加强对涉税专业服务机构及涉税服务人员的实名制管理，涉税专业服务机构及涉税服务人员应当以真实身份提供涉税专业服务。</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>税务机关应当加强对涉税专业服务机构及涉税服务人员的实名制管理，涉税专业服务机构及涉税服务人员应当以真实身份提供涉税专业服务。</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>第12条第1款</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>第12条第1款</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构应当于首次提供涉税专业服务前，如实向税务机关报送机构及其涉税服务人员的基本信息，并根据实际情况及时更新相关信息。</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构应当于首次提供涉税专业服务前，如实向税务机关报送机构及其涉税服务人员的基本信息，并根据实际情况及时更新相关信息。</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>第12条第2款</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>第12条第2款</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>依照法律法规、部门规章规定提供涉税专业服务的其他人员，应当于首次提供服务前，向户籍所在地、经常居住地或者提供服务所在地的主管税务机关如实报送本人的基本信息。</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>依照法律法规、部门规章规定提供涉税专业服务的其他人员，应当于首次提供服务前，向户籍所在地、经常居住地或者提供服务所在地的主管税务机关如实报送本人的基本信息。</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>第12条第3款</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>第12条第3款</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构及涉税服务人员应当如实签署申报表等涉税文书。</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构及涉税服务人员应当如实签署申报表等涉税文书。</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>第12条第4款</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>第12条第4款</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>税务机关应当运用信息技术对涉税专业服务机构及涉税服务人员赋予信用码。</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>税务机关应当运用信息技术对涉税专业服务机构及涉税服务人员赋予信用码。</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>第13条第1款</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>第13条第1款</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>信用码采用二维码形式，经扫码可展示持有者的基本信息及其信用情况。</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>信用码采用二维码形式，经扫码可展示持有者的基本信息及其信用情况。</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>第13条第2款</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>第13条第2款</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构报送基本信息并作出信用承诺，取得涉税专业服务机构信用码。</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构报送基本信息并作出信用承诺，取得涉税专业服务机构信用码。</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>第13条第3款</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>第13条第3款</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>涉税服务人员应当通过电子税务局等渠道经实名认证，取得涉税服务人员信用码。</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>涉税服务人员应当通过电子税务局等渠道经实名认证，取得涉税服务人员信用码。</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>第13条第4款</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>第13条第4款</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构及涉税服务人员为委托人提供业务委托协议约定的涉税专业服务，应当如实向税务机关报送业务委托协议要素信息。其中，提供本办法第七条第一项和第七项涉税专业服务的，应当于提供服务前报送，并根据实际情况及时更新相关信息；提供本办法第七条第二项至第六项、第八项涉税专业服务的，应当于业务委托协议签订或者变更、终止之日起30日内报送。</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构及涉税服务人员为委托人提供业务委托协议约定的涉税专业服务，应当如实向税务机关报送业务委托协议要素信息。其中，提供本办法第七条第一项和第七项涉税专业服务的，应当于提供服务前报送，并根据实际情况及时更新相关信息；提供本办法第七条第二项至第六项、第八项涉税专业服务的，应当于业务委托协议签订或者变更、终止之日起30日内报送。</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>第14条第1款</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>第14条第1款</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>纳税人、扣缴义务人委托涉税专业服务机构及涉税服务人员代为办理税务事项时，应当向税务机关表明委托代理关系及相关授权事项，明确双方权利义务。</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>纳税人、扣缴义务人委托涉税专业服务机构及涉税服务人员代为办理税务事项时，应当向税务机关表明委托代理关系及相关授权事项，明确双方权利义务。</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>第14条第2款</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>第14条第2款</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>税务机关应当对纳税人、扣缴义务人授权的代理办税人员进行实名验证。对在多户纳税人、扣缴义务人担任办税人员的，应当由纳税人、扣缴义务人与办税人员在税务信息系统中确认任职受雇或者委托代理关系。</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>税务机关应当对纳税人、扣缴义务人授权的代理办税人员进行实名验证。对在多户纳税人、扣缴义务人担任办税人员的，应当由纳税人、扣缴义务人与办税人员在税务信息系统中确认任职受雇或者委托代理关系。</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>第14条第3款</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>第14条第3款</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>税务机关应当依托税务信息系统对代理办税人员在办税环节进行验证，确保其在委托人授权的范围内办理涉税事项。</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>税务机关应当依托税务信息系统对代理办税人员在办税环节进行验证，确保其在委托人授权的范围内办理涉税事项。</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>第14条第4款</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>第14条第4款</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>税务机关建立涉税专业服务业务信息采集制度，利用现有的信息化平台分类采集业务信息，提高分析利用水平。</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>税务机关建立涉税专业服务业务信息采集制度，利用现有的信息化平台分类采集业务信息，提高分析利用水平。</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>第15条第1款</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>第15条第1款</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>提供第七条第三项至第六项涉税专业服务的，应当向税务机关报送相关业务要素信息。</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>提供第七条第三项至第六项涉税专业服务的，应当向税务机关报送相关业务要素信息。</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>第15条第2款</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>第15条第2款</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构应当加强合规建设，按照涉税专业服务业务规范的要求，完善内部控制制度，建立质量管理制度、风险控制机制，规范承揽和开展业务。</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构应当加强合规建设，按照涉税专业服务业务规范的要求，完善内部控制制度，建立质量管理制度、风险控制机制，规范承揽和开展业务。</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>第16条第1款</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>第16条第1款</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构及涉税服务人员在业务实施过程中，应当加强对委托人的税法宣传辅导，促进提高税法遵从度。</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构及涉税服务人员在业务实施过程中，应当加强对委托人的税法宣传辅导，促进提高税法遵从度。</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>第16条第2款</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>第16条第2款</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构应当建立业务记录制度，记录执业过程并形成工作底稿，需要出具涉税报告和文书的，应当由承办业务的涉税服务人员签字并加盖涉税专业服务机构印章后交付委托人，由双方留存备查。法律、法规及国家税务总局规定报送的，应当向税务机关报送。</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构应当建立业务记录制度，记录执业过程并形成工作底稿，需要出具涉税报告和文书的，应当由承办业务的涉税服务人员签字并加盖涉税专业服务机构印章后交付委托人，由双方留存备查。法律、法规及国家税务总局规定报送的，应当向税务机关报送。</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>第16条第3款</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>第16条第3款</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构应当支持涉税服务人员参加继续教育、业务培训，保持其专业胜任能力。</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构应当支持涉税服务人员参加继续教育、业务培训，保持其专业胜任能力。</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>第16条第4款</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>第16条第4款</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构及涉税服务人员为委托人提供涉税专业服务，应当如实准确按照涉税专业服务类别对应的商品和服务税收分类编码开具发票。</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构及涉税服务人员为委托人提供涉税专业服务，应当如实准确按照涉税专业服务类别对应的商品和服务税收分类编码开具发票。</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>第17条</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>第17条第1款</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>税务机关应当建立涉税专业服务信用评价管理制度，涉税专业服务机构信用(英文名称为Tax Service Credit，缩写为TSC)按照从高到低顺序分为五级，分别是TSC5级、TSC4级、TSC3级、TSC2级和TSC1级。</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>税务机关应当建立涉税专业服务信用评价管理制度，涉税专业服务机构信用(英文名称为Tax Service Credit，缩写为TSC)按照从高到低顺序分为五级，分别是TSC5级、TSC4级、TSC3级、TSC2级和TSC1级。</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>第18条第1款</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>第18条第1款</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>税务机关对涉税服务人员采取信用积分和执业负面记录相结合的方式进行信用记录，建立累积信用积分激励机制，并为其提供自身信用记录的查询及下载服务。</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>税务机关对涉税服务人员采取信用积分和执业负面记录相结合的方式进行信用记录，建立累积信用积分激励机制，并为其提供自身信用记录的查询及下载服务。</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>第18条第2款</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>第18条第2款</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>税务机关根据涉税专业服务机构及涉税服务人员信用情况采取激励和约束措施。</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>税务机关根据涉税专业服务机构及涉税服务人员信用情况采取激励和约束措施。</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>第18条第3款</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>第18条第3款</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>税务机关应当在门户网站、电子税务局和办税服务场所公示涉税专业服务机构名单及其信用情况，同时公示未经行政登记的税务师事务所名单、重点监管对象名单、涉税服务失信主体。</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>税务机关应当在门户网站、电子税务局和办税服务场所公示涉税专业服务机构名单及其信用情况，同时公示未经行政登记的税务师事务所名单、重点监管对象名单、涉税服务失信主体。</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>第19条第1款</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>第19条第1款</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>税务机关应当建立涉税专业服务机构信息公告制度，提供涉税专业服务机构信用等级及排名等查询服务，便于纳税人、扣缴义务人自主比较选择涉税专业服务机构。</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>税务机关应当建立涉税专业服务机构信息公告制度，提供涉税专业服务机构信用等级及排名等查询服务，便于纳税人、扣缴义务人自主比较选择涉税专业服务机构。</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>第19条第2款</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>第19条第2款</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>税务机关所需的涉税专业服务，应当严格执行政府购买服务相关规定。</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>税务机关所需的涉税专业服务，应当严格执行政府购买服务相关规定。</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>第20条</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>第20条第1款</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>税务机关应当为涉税专业服务机构及涉税服务人员提供便利化服务，不断优化税务信息系统的代理办税功能。</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>税务机关应当为涉税专业服务机构及涉税服务人员提供便利化服务，不断优化税务信息系统的代理办税功能。</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>第21条第1款</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>第21条第1款</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>税务机关可以在涉税专业服务机构较为集中的区域，设立涉税专业服务机构办税服务专窗或者专区。</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>税务机关可以在涉税专业服务机构较为集中的区域，设立涉税专业服务机构办税服务专窗或者专区。</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>第21条第2款</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>第21条第2款</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>税务机关通过信息系统智能归集涉税专业服务机构相关数据，简化信息报送，定期生成涉税专业服务机构的年度服务总体情况，为其加强内部管理、防范执业风险、提升涉税专业服务信用等级提供参考。</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>税务机关通过信息系统智能归集涉税专业服务机构相关数据，简化信息报送，定期生成涉税专业服务机构的年度服务总体情况，为其加强内部管理、防范执业风险、提升涉税专业服务信用等级提供参考。</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>第22条</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>第22条第1款</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>税务机关应当加强对涉税专业服务机构及涉税服务人员的宣传辅导及业务培训，建立健全与涉税专业服务机构及其行业协会、纳税人之间的沟通机制。</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>税务机关应当加强对涉税专业服务机构及涉税服务人员的宣传辅导及业务培训，建立健全与涉税专业服务机构及其行业协会、纳税人之间的沟通机制。</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>第23条</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>第23条第1款</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>税务机关应当加强对税务师行业协会的监督指导，发挥税务师行业在涉税专业服务行业中的示范和引领作用，与注册会计师、律师、代理记账等其他相关行业协会建立工作联系制度，强化行业自律监督，引导合规诚信经营，促进涉税专业服务行业高质量发展。</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>税务机关应当加强对税务师行业协会的监督指导，发挥税务师行业在涉税专业服务行业中的示范和引领作用，与注册会计师、律师、代理记账等其他相关行业协会建立工作联系制度，强化行业自律监督，引导合规诚信经营，促进涉税专业服务行业高质量发展。</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>第24条第1款</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>第24条第1款</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>税务机关可以委托行业协会对涉税专业服务机构提供涉税专业服务的执业质量进行评价。</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>税务机关可以委托行业协会对涉税专业服务机构提供涉税专业服务的执业质量进行评价。</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>第24条第2款</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>第24条第2款</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>全国税务师行业协会负责拟制涉税专业服务业务规范，报国家税务总局批准后施行。</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>全国税务师行业协会负责拟制涉税专业服务业务规范，报国家税务总局批准后施行。</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>第24条第3款</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>第24条第3款</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>税务机关应当对涉税专业服务机构及涉税服务人员实行风险管理，对其逃避涉税专业服务管理、不依法纳税、执业违规等风险事项进行监督检查。</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>税务机关应当对涉税专业服务机构及涉税服务人员实行风险管理，对其逃避涉税专业服务管理、不依法纳税、执业违规等风险事项进行监督检查。</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>第25条第1款</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>第25条第1款</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>税务机关应当加强对涉税专业服务机构及涉税服务人员发布涉税违法违规信息问题的监测及处置。</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>税务机关应当加强对涉税专业服务机构及涉税服务人员发布涉税违法违规信息问题的监测及处置。</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>第25条第2款</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>第25条第2款</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>税务机关负责对涉税专业服务执业情况进行检查，包括以下检查内容：</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>税务机关负责对涉税专业服务执业情况进行检查，包括以下检查内容：</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>第26条第1款</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>第26条第1款</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构内部制度建设情况；</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构内部制度建设情况；</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>第26条第1款第1项</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>第26条第1款第1项</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构报送的基本信息；</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构报送的基本信息；</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>第26条第1款第2项</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>第26条第1款第2项</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构的执业资质；</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构的执业资质；</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>第26条第1款第3项</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>第26条第1款第3项</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构报送的业务信息；</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构报送的业务信息；</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>第26条第1款第4项</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>第26条第1款第4项</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构执行涉税专业服务业务规范情况；</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构执行涉税专业服务业务规范情况；</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>第26条第1款第5项</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>第26条第1款第5项</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>涉税报告和文书留存备查情况；</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>涉税报告和文书留存备查情况；</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>第26条第1款第6项</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>第26条第1款第6项</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>其他监督检查事项。</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>其他监督检查事项。</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>第26条第1款第7项</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>第26条第1款第7项</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>税务机关应当根据涉税专业服务机构的信用和风险等日常管理情况制定检查计划，明确检查的依据、频次、方式、内容和程序，抽取被检查对象；也可以根据举报投诉、涉税违法违规信息监测进行检查。</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>税务机关应当根据涉税专业服务机构的信用和风险等日常管理情况制定检查计划，明确检查的依据、频次、方式、内容和程序，抽取被检查对象；也可以根据举报投诉、涉税违法违规信息监测进行检查。</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>第27条</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>第27条第1款</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>税务机关可以采取实地检查、调取业务档案、询问、查询、异地协查等方法，对涉税专业服务机构实施检查，对与检查相关的情况和资料，可以记录、录音、录像、照相和复制。</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>税务机关可以采取实地检查、调取业务档案、询问、查询、异地协查等方法，对涉税专业服务机构实施检查，对与检查相关的情况和资料，可以记录、录音、录像、照相和复制。</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>第28条</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>第28条第1款</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>税务机关在检查完成后，应当形成检查报告。</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>税务机关在检查完成后，应当形成检查报告。</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>第29条第1款</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>第29条第1款</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>对检查发现涉税专业服务机构及涉税服务人员存在违反本办法规定情形的，由主管税务机关进行处理。</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>对检查发现涉税专业服务机构及涉税服务人员存在违反本办法规定情形的，由主管税务机关进行处理。</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>第29条第2款</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>第29条第2款</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>对检查发现涉税专业服务机构及涉税服务人员存在其他涉税问题的，由税务机关按照规定进行处理；属于其他部门职责的，由主管税务机关移送有权处理部门。</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>对检查发现涉税专业服务机构及涉税服务人员存在其他涉税问题的，由税务机关按照规定进行处理；属于其他部门职责的，由主管税务机关移送有权处理部门。</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>第29条第3款</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>第29条第3款</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>对检查发现税务人员存在与涉税专业服务机构及涉税服务人员不当交往，或者涉嫌滥用职权、玩忽职守、徇私舞弊等行为的，由税务机关根据干部管理权限移送纪检监察机构处理，涉嫌违法犯罪的移送司法机关。</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>对检查发现税务人员存在与涉税专业服务机构及涉税服务人员不当交往，或者涉嫌滥用职权、玩忽职守、徇私舞弊等行为的，由税务机关根据干部管理权限移送纪检监察机构处理，涉嫌违法犯罪的移送司法机关。</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>第29条第4款</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>第29条第4款</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>税务机关应当加强与财政、司法行政、市场监管、网信等相关部门的协同管理。</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>税务机关应当加强与财政、司法行政、市场监管、网信等相关部门的协同管理。</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>第30条</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>第30条第1款</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>违反本办法，有下列情形之一的，由主管税务机关提示提醒、责令限期改正或者予以约谈，扣减信用积分或者纳入负面信用记录(第一、二项情形除外)；情节较重或者逾期不改正的，由主管税务机关列为重点监管对象，扣减信用积分、降低信用等级或者纳入负面信用记录(第一、二项情形除外)，向委托人及委托人所在地主管税务机关进行风险提示；情节严重的，由主管税务机关列为涉税服务失信主体予以公告，向委托人及委托人所在地主管税务机关进行风险提示，所代理的涉税业务应当由其与委托人共同到税务机关现场办理：</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>违反本办法，有下列情形之一的，由主管税务机关提示提醒、责令限期改正或者予以约谈，扣减信用积分或者纳入负面信用记录(第一、二项情形除外)；情节较重或者逾期不改正的，由主管税务机关列为重点监管对象，扣减信用积分、降低信用等级或者纳入负面信用记录(第一、二项情形除外)，向委托人及委托人所在地主管税务机关进行风险提示；情节严重的，由主管税务机关列为涉税服务失信主体予以公告，向委托人及委托人所在地主管税务机关进行风险提示，所代理的涉税业务应当由其与委托人共同到税务机关现场办理：</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>第31条第1款</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>第31条第1款</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>使用税务师事务所名称未办理行政登记的；</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>使用税务师事务所名称未办理行政登记的；</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>第31条第1款第1项</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>第31条第1款第1项</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>提供涉税专业服务但未按规定报送涉税专业服务机构及涉税服务人员基本信息的；</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>提供涉税专业服务但未按规定报送涉税专业服务机构及涉税服务人员基本信息的；</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>第31条第1款第2项</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>第31条第1款第2项</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>未按规定报送涉税专业服务业务委托协议、业务信息的；</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>未按规定报送涉税专业服务业务委托协议、业务信息的；</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>第31条第1款第3项</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>第31条第1款第3项</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>报送的基本信息、业务委托协议及业务信息与实际不符的；</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>报送的基本信息、业务委托协议及业务信息与实际不符的；</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>第31条第1款第4项</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>第31条第1款第4项</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>妨害税务机关依照本办法履行职责的；</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>妨害税务机关依照本办法履行职责的；</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>第31条第1款第5项</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>第31条第1款第5项</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>未以涉税服务人员身份，而以委托方办税人员身份办理业务，或者存在其他不以真实身份办理业务情形的；</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>未以涉税服务人员身份，而以委托方办税人员身份办理业务，或者存在其他不以真实身份办理业务情形的；</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>第31条第1款第6项</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>第31条第1款第6项</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>代为办理涉税业务未如实填报签署申报表等涉税文书的；</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>代为办理涉税业务未如实填报签署申报表等涉税文书的；</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>第31条第1款第7项</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>第31条第1款第7项</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>不具备相应专业能力而从事相关涉税专业服务的；</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>不具备相应专业能力而从事相关涉税专业服务的；</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>第31条第1款第8项</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>第31条第1款第8项</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>涉税服务人员违反规定，以个人名义提供涉税专业服务的；</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>涉税服务人员违反规定，以个人名义提供涉税专业服务的；</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>第31条第1款第9项</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>第31条第1款第9项</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>其他违反税务机关管理规定的行为。</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>其他违反税务机关管理规定的行为。</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>第31条第1款第10项</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>第31条第1款第10项</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>有前款第一项情形且逾期不改正的，除按上述规定处理外，应当由税务机关提请同级市场监管部门责令其限期变更市场主体登记；对超过市场监管部门限期仍不改正的，由税务机关提请同级市场监管部门吊销其营业执照。</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>有前款第一项情形且逾期不改正的，除按上述规定处理外，应当由税务机关提请同级市场监管部门责令其限期变更市场主体登记；对超过市场监管部门限期仍不改正的，由税务机关提请同级市场监管部门吊销其营业执照。</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>第31条第2款</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>第31条第2款</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构及涉税服务人员有下列情形之一的，由主管税务机关列为重点监管对象，扣减信用积分、降低信用等级或者纳入负面信用记录，向委托人及委托人所在地主管税务机关进行风险提示；情节较重的，由主管税务机关列为涉税服务失信主体予以公告，向委托人及委托人所在地主管税务机关进行风险提示，所代理的涉税业务应当由其与委托人共同到税务机关现场办理；情节严重的，由设区的市、自治州税务机关列为涉税服务严重失信主体予以公告，向委托人及委托人所在地主管税务机关进行风险提示，所代理的涉税业务应当由其与委托人共同到税务机关现场办理，将信息通报相关部门实施监管和联合惩戒，对税务师事务所由其行政登记的税务机关宣布《税务师事务所行政登记证书》无效，提请市场监管部门吊销其营业执照，提请全国税务师行业协会取消税务师职业资格证书登记、收回其职业资格证书并向社会公告，对会计师事务所、律师事务所、代理记账机构等其他涉税专业服务机构及其涉税服务人员由税务机关提请其他行业主管部门及行业协会予以相应处理：</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构及涉税服务人员有下列情形之一的，由主管税务机关列为重点监管对象，扣减信用积分、降低信用等级或者纳入负面信用记录，向委托人及委托人所在地主管税务机关进行风险提示；情节较重的，由主管税务机关列为涉税服务失信主体予以公告，向委托人及委托人所在地主管税务机关进行风险提示，所代理的涉税业务应当由其与委托人共同到税务机关现场办理；情节严重的，由设区的市、自治州税务机关列为涉税服务严重失信主体予以公告，向委托人及委托人所在地主管税务机关进行风险提示，所代理的涉税业务应当由其与委托人共同到税务机关现场办理，将信息通报相关部门实施监管和联合惩戒，对税务师事务所由其行政登记的税务机关宣布《税务师事务所行政登记证书》无效，提请市场监管部门吊销其营业执照，提请全国税务师行业协会取消税务师职业资格证书登记、收回其职业资格证书并向社会公告，对会计师事务所、律师事务所、代理记账机构等其他涉税专业服务机构及其涉税服务人员由税务机关提请其他行业主管部门及行业协会予以相应处理：</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>第32条第1款</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>第32条第1款</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>违反税收法律、行政法规，造成委托人未缴少缴税款或者骗取税收优惠，按照《中华人民共和国税收征收管理法》及其实施细则相关规定被处罚的；</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>违反税收法律、行政法规，造成委托人未缴少缴税款或者骗取税收优惠，按照《中华人民共和国税收征收管理法》及其实施细则相关规定被处罚的；</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>第32条第1款第1项</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>第32条第1款第1项</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>未按涉税专业服务业务规范执业，出具虚假意见的；</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>未按涉税专业服务业务规范执业，出具虚假意见的；</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>第32条第1款第2项</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>第32条第1款第2项</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>采取隐瞒、欺诈、贿赂、串通、回扣、不当承诺、恶意低价、虚假涉税宣传及广告等不正当手段承揽业务，损害国家税收利益、委托人或者他人利益的；</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>采取隐瞒、欺诈、贿赂、串通、回扣、不当承诺、恶意低价、虚假涉税宣传及广告等不正当手段承揽业务，损害国家税收利益、委托人或者他人利益的；</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>第32条第1款第3项</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>第32条第1款第3项</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>公开歪曲解读税收政策，扰乱正常税收秩序的；</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>公开歪曲解读税收政策，扰乱正常税收秩序的；</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>第32条第1款第4项</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>第32条第1款第4项</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>唆使、诱导、帮助他人实施涉税违法违规活动的；</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>唆使、诱导、帮助他人实施涉税违法违规活动的；</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>第32条第1款第5项</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>第32条第1款第5项</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>利用服务之便，谋取不正当利益的；</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>利用服务之便，谋取不正当利益的；</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>第32条第1款第6项</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>第32条第1款第6项</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>以税务机关和税务人员的名义敲诈纳税人、扣缴义务人的；</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>以税务机关和税务人员的名义敲诈纳税人、扣缴义务人的；</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>第32条第1款第7项</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>第32条第1款第7项</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>向税务机关工作人员及其配偶、子女及其配偶等亲属和其他特定关系人输送不正当利益或者指使、诱导委托人输送不正当利益的；</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>向税务机关工作人员及其配偶、子女及其配偶等亲属和其他特定关系人输送不正当利益或者指使、诱导委托人输送不正当利益的；</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>第32条第1款第8项</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>第32条第1款第8项</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>其他违反税收及相关法律法规的行为。</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>其他违反税收及相关法律法规的行为。</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>第32条第1款第9项</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>第32条第1款第9项</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>第33条第1款</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>第33条第1款</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>违反税收法律、行政法规，造成委托人未缴少缴税款或者骗取税收优惠的，对涉税专业服务机构及涉税服务人员按照《中华人民共和国税收征收管理法》及其实施细则相关规定予以处罚；涉税专业服务机构已被依法处罚、所属涉税服务人员未被依法处罚的，对负有直接责任的涉税服务人员，处以一千元以下罚款；情节较重的，处以二千元以下罚款；情节严重的，处以五千元以下罚款。</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>违反税收法律、行政法规，造成委托人未缴少缴税款或者骗取税收优惠的，对涉税专业服务机构及涉税服务人员按照《中华人民共和国税收征收管理法》及其实施细则相关规定予以处罚；涉税专业服务机构已被依法处罚、所属涉税服务人员未被依法处罚的，对负有直接责任的涉税服务人员，处以一千元以下罚款；情节较重的，处以二千元以下罚款；情节严重的，处以五千元以下罚款。</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>第33条第2款</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>第33条第2款</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>存在第三十二条第二项至第九项情形，未按照相关法律法规被处罚的，对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款；情节较重的，对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款；情节严重的，对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款。</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>存在第三十二条第二项至第九项情形，未按照相关法律法规被处罚的，对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款；情节较重的，对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款；情节严重的，对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款。</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>第33条第3款</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>第33条第3款</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构有证据证明涉税服务人员的违法违规行为属与本机构无关的个人行为的，可以免予对涉税专业服务机构的处理处罚。</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>涉税专业服务机构有证据证明涉税服务人员的违法违规行为属与本机构无关的个人行为的，可以免予对涉税专业服务机构的处理处罚。</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>第34条</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>第34条第1款</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>税务机关及其税务工作人员违反本办法规定的，对直接责任人和相关责任人依规依纪依法处理。</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>税务机关及其税务工作人员违反本办法规定的，对直接责任人和相关责任人依规依纪依法处理。</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>第35条</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>第35条第1款</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>各省级税务机关可以依据本办法，结合本地实际，制定具体实施办法并报国家税务总局备案。</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>各省级税务机关可以依据本办法，结合本地实际，制定具体实施办法并报国家税务总局备案。</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>第36条</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>第36条第1款</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>本办法所称“以下”包含本数。</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>本办法所称“以下”包含本数。</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>第37条</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>第37条第1款</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>本办法自2025年5月1日起施行。</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>本办法自2025年5月1日起施行。</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>第38条第1款</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>第38条第1款</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>本办法施行之前的涉税专业服务有关管理规定与本办法不一致的，以本办法为准。</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>本办法施行之前的涉税专业服务有关管理规定与本办法不一致的，以本办法为准。</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>第38条第2款</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>第38条第2款</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>本办法由国家税务总局解释。</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>本办法由国家税务总局解释。</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>第39条</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>第39条第1款</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>条</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>款</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>项</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>目</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>原内容</t>
+        </is>
+      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>原条款</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>条款</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>条类型</t>
         </is>
@@ -2727,20 +7074,25 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>根据《中华人民共和国对外关系法》、《中华人民共和国反外国制裁法》(以下简称反外国制裁法)等法律，制定本规定。</t>
+          <t>为进一步加强节约用水管理，推动深度节水控水，提高水资源利用效率，促进生态文明建设，推动高质量发展，根据《中华人民共和国水法》《节约用水条例》等有关法律、法规，结合本市实际，制定本办法。</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>为进一步加强节约用水管理，推动深度节水控水，提高水资源利用效率，促进生态文明建设，推动高质量发展，根据《中华人民共和国水法》《节约用水条例》等有关法律、法规，结合本市实际，制定本办法。</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>第1条</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>第1条第1款</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2759,20 +7111,25 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>反外国制裁工作贯彻总体国家安全观，维护国家主权、安全、发展利益，保护我国公民、组织的合法权益。</t>
+          <t>本市行政区域内节约用水及其监督管理活动适用本办法。法律、法规对节约用水管理另有规定的，依照其规定执行。</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>本市行政区域内节约用水及其监督管理活动适用本办法。法律、法规对节约用水管理另有规定的，依照其规定执行。</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>第2条</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>第2条第1款</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2791,20 +7148,25 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>外国国家违反国际法和国际关系基本准则，以各种借口或者依据其本国法律对我国进行遏制、打压，对我国公民、组织采取歧视性限制措施，干涉我国内政的，或者外国国家、组织、个人实施、协助、支持危害我国主权、安全、发展利益的行为的，国务院有关部门根据反外国制裁法和本规定，有权决定将有关组织、个人及与其相关的组织、个人列入反制清单、采取反制措施。</t>
+          <t>节约用水工作应当坚持节水优先、统筹规划、合理配置、总量控制、定额管理、分类指导的原则，建立政府主导、各方协同、市场调节、公众参与的节约用水机制。</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>节约用水工作应当坚持节水优先、统筹规划、合理配置、总量控制、定额管理、分类指导的原则，建立政府主导、各方协同、市场调节、公众参与的节约用水机制。</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>第3条</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>第3条第1款</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2823,12 +7185,12 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>国务院有关部门在实施反外国制裁法和本规定过程中，有权开展相应调查和对外磋商。</t>
+          <t>市、县(市、区)人民政府坚持以水定城、以水定地、以水定人、以水定产，落实水资源刚性约束制度，加强对节约用水工作的组织领导，建立健全节约用水管理机构及服务体系，将节约用水工作纳入国民经济和社会发展相关规划及年度计划，完善并推动落实节约用水政策和保障措施，建立促进节约用水的水价形成机制，统筹研究和协调解决节约用水工作中的重大问题，所需经费列入财政预算。</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>第4条</t>
+          <t>市、县(市、区)人民政府坚持以水定城、以水定地、以水定人、以水定产，落实水资源刚性约束制度，加强对节约用水工作的组织领导，建立健全节约用水管理机构及服务体系，将节约用水工作纳入国民经济和社会发展相关规划及年度计划，完善并推动落实节约用水政策和保障措施，建立促进节约用水的水价形成机制，统筹研究和协调解决节约用水工作中的重大问题，所需经费列入财政预算。</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2836,78 +7198,93 @@
           <t>第4条第1款</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>第4条第1款</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>国务院有关部门作出采取反制措施的决定，应当明确反制措施的适用对象、具体反制措施、施行日期等。</t>
+          <t>乡(镇)人民政府和街道办事处、各类园区管理机构等应当做好区域内节约用水工作，协助有关行政主管部门做好节约用水监督管理工作。</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>第5条</t>
+          <t>乡(镇)人民政府和街道办事处、各类园区管理机构等应当做好区域内节约用水工作，协助有关行政主管部门做好节约用水监督管理工作。</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>第5条第1款</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+          <t>第4条第2款</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>第4条第2款</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>反外国制裁法第六条第一项中的不予签发签证、不准入境、注销签证或者驱逐出境，由国务院外交、国家移民管理等有关部门，依照职责权限实施。</t>
+          <t>村(居)民委员会应当协助有关部门做好节约用水相关工作。</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>第6条</t>
+          <t>村(居)民委员会应当协助有关部门做好节约用水相关工作。</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>第6条第1款</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+          <t>第4条第3款</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>第4条第3款</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2919,91 +7296,106 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>反外国制裁法第六条第二项中的查封、扣押、冻结，由国务院公安、财政、自然资源、交通运输、海关、市场监督管理、金融管理、知识产权等有关部门，依照职责权限实施。</t>
+          <t>水行政主管部门负责本行政区内节约用水监督管理工作，执行国家节约用水政策，制定、组织实施用水总量控制、定额管理和计划用水制度、节约用水规划，指导和推进节水型社会建设。</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>第7条第1款</t>
+          <t>水行政主管部门负责本行政区内节约用水监督管理工作，执行国家节约用水政策，制定、组织实施用水总量控制、定额管理和计划用水制度、节约用水规划，指导和推进节水型社会建设。</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>第7条第1款</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+          <t>第5条</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>第5条第1款</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>反外国制裁法第六条第二项中的其他各类财产，包括现金、票据、银行存款、有价证券、基金份额、股权、知识产权、应收账款等财产和财产权利。</t>
+          <t>工信、住建、农业农村主管部门负责指导本行业领域开展节约用水工作，推广应用节水新技术、新设备和新工艺，监督落实节水措施和节水指标。</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>第7条第2款</t>
+          <t>工信、住建、农业农村主管部门负责指导本行业领域开展节约用水工作，推广应用节水新技术、新设备和新工艺，监督落实节水措施和节水指标。</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>第7条第2款</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+          <t>第6条第1款</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>第6条第1款</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>反外国制裁法第六条第三项中的禁止或者限制我国境内的组织、个人与其进行有关交易、合作等活动，包括但不限于教育、科技、法律服务、环保、经贸、文化、旅游、卫生、体育领域的活动，由国务院教育、科技、司法行政、生态环境、商务、文化和旅游、卫生健康、体育行政等有关部门，依照职责权限实施。</t>
+          <t>市、县(市、区)发展改革、教育、科技、财政、自然资源、生态环境、文旅、林草、市场监督管理、统计、机关事务管理等主管部门按照职责分工做好节约用水有关工作。</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>第8条</t>
+          <t>市、县(市、区)发展改革、教育、科技、财政、自然资源、生态环境、文旅、林草、市场监督管理、统计、机关事务管理等主管部门按照职责分工做好节约用水有关工作。</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>第8条第1款</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
+          <t>第6条第2款</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>第6条第2款</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3015,59 +7407,69 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>反外国制裁法第六条第四项中的其他必要措施，包括但不限于禁止或者限制从事与我国有关的进出口活动，禁止或者限制在我国境内投资，禁止向其出口相关物项，禁止或者限制向其提供数据、个人信息，取消或者限制其相关人员在我国境内工作许可、停留或者居留资格，处以罚款。</t>
+          <t>市、县(市、区)、乡(镇)人民政府应当加强节约用水宣传教育和科学普及，提升全民节约用水意识和节约用水技能，形成自觉节约用水的社会风尚。鼓励基层群众自治组织、社会组织开展节约用水法律、法规和知识宣传。</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>第9条</t>
+          <t>市、县(市、区)、乡(镇)人民政府应当加强节约用水宣传教育和科学普及，提升全民节约用水意识和节约用水技能，形成自觉节约用水的社会风尚。鼓励基层群众自治组织、社会组织开展节约用水法律、法规和知识宣传。</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>第9条第1款</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+          <t>第7条第1款</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>第7条第1款</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>国务院外交、商务、发展改革、司法行政等部门按照各自职责和任务分工，负责承担反外国制裁工作协调机制相关工作。国务院有关部门加强对反制措施确定和实施的协同配合和信息共享。</t>
+          <t>电视、广播、报刊、互联网等媒体应当开展节约用水公益宣传，对浪费水资源的行为进行舆论监督。</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>第10条</t>
+          <t>电视、广播、报刊、互联网等媒体应当开展节约用水公益宣传，对浪费水资源的行为进行舆论监督。</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>第10条第1款</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
+          <t>第7条第2款</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>第7条第2款</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3079,27 +7481,32 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>国务院有关部门作出采取、暂停、变更或者取消有关反制措施决定的，应当通过其官方网站等途径发布并及时更新。</t>
+          <t>市、县(市、区)人民政府应当鼓励、支持节约用水的科学技术研究和有关设施、设备、器具的研制开发，推广应用先进节约用水技术，引导推动合同节水管理。</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>第11条</t>
+          <t>市、县(市、区)人民政府应当鼓励、支持节约用水的科学技术研究和有关设施、设备、器具的研制开发，推广应用先进节约用水技术，引导推动合同节水管理。</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>第11条第1款</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
+          <t>第8条</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>第8条第1款</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3111,27 +7518,32 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>反制措施需要国务院其他部门实施的，作出采取、暂停、变更或者取消反制措施决定的国务院有关部门应当按照相关程序，将反制措施的决定通报负责实施的国务院有关部门。</t>
+          <t>市、县(市、区)人民政府应当建立节约用水激励机制，对用水单位和个人在节约用水工作中作出突出贡献和显著成绩的，依据《甘肃省节约用水条例》和有关规定进行表彰奖励。</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>第12条第1款</t>
+          <t>市、县(市、区)人民政府应当建立节约用水激励机制，对用水单位和个人在节约用水工作中作出突出贡献和显著成绩的，依据《甘肃省节约用水条例》和有关规定进行表彰奖励。</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>第12条第1款</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
+          <t>第9条第1款</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>第9条第1款</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3143,27 +7555,32 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>收到反制措施决定的国务院有关部门，应当依照职责分工实施。</t>
+          <t>任何单位和个人都有保护水资源和节约用水的义务，有权制止破坏水资源、水生态环境和浪费水的行为，向有关部门举报违法行为。</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>第12条第2款</t>
+          <t>任何单位和个人都有保护水资源和节约用水的义务，有权制止破坏水资源、水生态环境和浪费水的行为，向有关部门举报违法行为。</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>第12条第2款</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
+          <t>第9条第2款</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>第9条第2款</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3175,27 +7592,32 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>国务院有关部门对不依法执行反制措施的，有权责令改正，禁止或者限制其从事政府采购、招标投标以及有关货物、技术的进出口或者国际服务贸易等活动，禁止或者限制其从境外接收或者向境外提供数据、个人信息，禁止或者限制其出境、在我国境内停留居留等。</t>
+          <t>市、县级人民政府应当建立节约用水目标责任制和考核评价制度，将节约用水目标完成情况纳入对县、乡政府及其负责人考核范围。</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>第13条</t>
+          <t>市、县级人民政府应当建立节约用水目标责任制和考核评价制度，将节约用水目标完成情况纳入对县、乡政府及其负责人考核范围。</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>第13条第1款</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
+          <t>第10条</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>第10条第1款</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3207,91 +7629,106 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>采取反制措施的决定公布后，被采取反制措施的组织、个人可以向作出采取反制措施决定的国务院有关部门申请暂停、变更或者取消有关反制措施，申请时应当提供其改正行为、采取措施消除行为后果等方面的事实和理由。</t>
+          <t>市、县(市、区)人民政府根据经济社会发展需要、水资源状况和上级节约用水规划，组织编制本行政区域的节约用水规划。</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>第14条</t>
+          <t>市、县(市、区)人民政府根据经济社会发展需要、水资源状况和上级节约用水规划，组织编制本行政区域的节约用水规划。</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>第14条第1款</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
+          <t>第11条第1款</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>第11条第1款</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>作出采取反制措施决定的国务院有关部门可以根据实际情况组织评估反制措施的执行情况和效果。</t>
+          <t>市、县(市、区)人民政府应当加强再生水、矿井水、苦咸水等非常规水源的开发利用，编制非常规水源利用规划，将非常规水源纳入水资源统一配置。</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>第15条第1款</t>
+          <t>市、县(市、区)人民政府应当加强再生水、矿井水、苦咸水等非常规水源的开发利用，编制非常规水源利用规划，将非常规水源纳入水资源统一配置。</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>第15条第1款</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
+          <t>第11条第2款</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>第11条第2款</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>作出采取反制措施决定的国务院有关部门根据评估结果或者根据对被采取反制措施的组织、个人申请事实和理由的审查情况，可以暂停、变更或者取消有关反制措施。</t>
+          <t>本市开发利用水资源应当优先利用地表水，限制开采地下水，充分利用非常规水源。</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>第15条第2款</t>
+          <t>本市开发利用水资源应当优先利用地表水，限制开采地下水，充分利用非常规水源。</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>第15条第2款</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
+          <t>第12条</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>第12条第1款</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3303,59 +7740,69 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>采取反制措施的决定公布后，有关组织、个人在特殊情况下确需与被采取反制措施的组织、个人进行被禁止或者限制的相关活动的，应当向作出采取反制措施决定的国务院有关部门提供相应的事实和理由，经同意可以与被采取反制措施的组织、个人进行相关活动。</t>
+          <t>市、县发展改革行政主管部门会同水行政主管部门负责做好本行政区用水总量控制指标、用水效率控制指标与国民经济和社会发展规划的衔接。</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>第16条</t>
+          <t>市、县发展改革行政主管部门会同水行政主管部门负责做好本行政区用水总量控制指标、用水效率控制指标与国民经济和社会发展规划的衔接。</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>第16条第1款</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
+          <t>第13条第1款</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>第13条第1款</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>对执行或者协助执行外国国家对我国公民、组织采取的歧视性限制措施的，国务院有关部门有权进行约谈，责令改正，采取相应处理措施。</t>
+          <t>市级水行政主管部门应当按照年度分解制定县级行政区域用水总量和强度控制指标。县级水行政主管部门应当分行业制定年度用水计划并组织实施。</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>第17条</t>
+          <t>市级水行政主管部门应当按照年度分解制定县级行政区域用水总量和强度控制指标。县级水行政主管部门应当分行业制定年度用水计划并组织实施。</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>第17条第1款</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
+          <t>第13条第2款</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>第13条第2款</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3367,27 +7814,32 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>任何组织和个人执行或者协助执行外国国家对我国公民、组织采取的歧视性限制措施，侵害我国公民、组织合法权益的，我国公民、组织有权依法向人民法院提起诉讼，要求停止侵害、赔偿损失。</t>
+          <t>各行业用水户应当严格执行行业用水定额。水资源论证、取水许可审批和用水计划核定，应当符合行业用水定额标准。</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>第18条</t>
+          <t>各行业用水户应当严格执行行业用水定额。水资源论证、取水许可审批和用水计划核定，应当符合行业用水定额标准。</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>第18条第1款</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
+          <t>第14条</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>第14条第1款</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3399,27 +7851,32 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>外国国家、组织或者个人通过推动、实施诉讼等手段危害我国主权、安全、发展利益的，国务院有关部门有权决定将参与诉讼和判决执行等活动的上述主体及与其相关的组织、个人列入反制清单，采取限制入境，查封、扣押、冻结在我国境内的财产，禁止或者限制与其进行有关交易、合作等反制措施，并保留采取强制执行财产以及其他更严厉反制措施的权利。</t>
+          <t>市、县(市、区)水行政主管部门应当对取水许可实行动态管理，按照管理权限及时核发、注销、延续取水许可证。</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>第19条第1款</t>
+          <t>市、县(市、区)水行政主管部门应当对取水许可实行动态管理，按照管理权限及时核发、注销、延续取水许可证。</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>第19条第1款</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
+          <t>第15条第1款</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>第15条第1款</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3431,59 +7888,69 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>任何组织和个人均不得执行或者协助执行前款外国国家、组织或者个人推动、实施的诉讼所作出的判决。</t>
+          <t>在取水许可证延续换发时，应当重新核定许可水量，核减的水量指标由政府再行配置。</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>第19条第2款</t>
+          <t>在取水许可证延续换发时，应当重新核定许可水量，核减的水量指标由政府再行配置。</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>第19条第2款</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
+          <t>第15条第2款</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>第15条第2款</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>鼓励支持律师事务所、公证机构等专业服务机构为反外国制裁提供法律服务，包括协助相关组织、个人为执行反制措施实施风险控制管理，代理我国公民、组织就相关组织、个人因执行或者协助执行外国国家歧视性限制措施侵害合法权益向人民法院提起诉讼，办理相关公证业务等。</t>
+          <t>取水总量达到或者超过用水总量控制指标的地区，可通过水权交易方式获得用水指标。</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>第20条</t>
+          <t>取水总量达到或者超过用水总量控制指标的地区，可通过水权交易方式获得用水指标。</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>第20条第1款</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
+          <t>第15条第3款</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>第15条第3款</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3495,27 +7962,32 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>在实施反外国制裁法和本规定过程中，涉及司法协助相关工作的，由国务院司法行政部门会同主管机关依照我国有关法律、缔结或者参加的国际条约办理。</t>
+          <t>市、县(市、区)水行政主管部门应当会同城市供水主管部门建立完善重点监控用水单位名录，并按规定向社会公布。</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>第21条</t>
+          <t>市、县(市、区)水行政主管部门应当会同城市供水主管部门建立完善重点监控用水单位名录，并按规定向社会公布。</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>第21条第1款</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
+          <t>第16条</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>第16条第1款</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3527,20 +7999,1406 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>本规定自公布之日起施行。</t>
+          <t>用水应当计量。取用水户按照国家有关规定安装和使用经计量检定合格的计量设施。</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>用水应当计量。取用水户按照国家有关规定安装和使用经计量检定合格的计量设施。</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>第17条第1款</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>第17条第1款</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>同一取用水户使用两个以上不同水源或者有两类以上不同用途用水的，应当分别、分类计量。</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>同一取用水户使用两个以上不同水源或者有两类以上不同用途用水的，应当分别、分类计量。</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>第17条第2款</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>第17条第2款</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>任何单位和个人不得侵占、损毁、擅自移动用水计量设施或者监测设备，不得干扰用水计量。</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>任何单位和个人不得侵占、损毁、擅自移动用水计量设施或者监测设备，不得干扰用水计量。</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>第17条第3款</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>第17条第3款</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>用水户有以下情形之一的，水行政主管部门应当督促、指导其开展水平衡测试，查找超量原因，落实节约用水措施：</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>用水户有以下情形之一的，水行政主管部门应当督促、指导其开展水平衡测试，查找超量原因，落实节约用水措施：</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>第18条第1款</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>第18条第1款</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>年度实际用水总量超过计划用水总量30%以上的；</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>年度实际用水总量超过计划用水总量30%以上的；</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>第18条第1款第1项</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>第18条第1款第1项</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>月实际用水量超过月计划用水量50%以上的；</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>月实际用水量超过月计划用水量50%以上的；</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>第18条第1款第2项</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>第18条第1款第2项</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>其他应当开展水平衡测试的情形。</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>其他应当开展水平衡测试的情形。</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>第18条第1款第3项</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>第18条第1款第3项</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>列入重点监控用水单位名录的取用水户，应当按照规定定期开展水平衡测试，优化完善节水工艺和设备。</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>列入重点监控用水单位名录的取用水户，应当按照规定定期开展水平衡测试，优化完善节水工艺和设备。</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>第18条第2款</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>第18条第2款</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>水平衡测试结果作为核定用水计划的重要依据。</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>水平衡测试结果作为核定用水计划的重要依据。</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>第18条第3款</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>第18条第3款</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>市、县(市、区)人民政府应当结合经济社会发展水平、水资源状况、用水定额、供水成本、用水户承受能力和节约用水要求，依法合理制定水价。</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>市、县(市、区)人民政府应当结合经济社会发展水平、水资源状况、用水定额、供水成本、用水户承受能力和节约用水要求，依法合理制定水价。</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>第19条</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>第19条第1款</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>新建、改建、扩建项目应当严格按照相关规定，配套建设节约用水设施、非常规水源利用设施，并与主体工程同时设计、同时施工、同时投入使用。</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>新建、改建、扩建项目应当严格按照相关规定，配套建设节约用水设施、非常规水源利用设施，并与主体工程同时设计、同时施工、同时投入使用。</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>第20条</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>第20条第1款</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>市、县(市、区)水行政主管部门应当加强取水许可的监督管理，对具备使用非常规水条件但未合理使用的建设项目，不得批准其新增取水许可。</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>市、县(市、区)水行政主管部门应当加强取水许可的监督管理，对具备使用非常规水条件但未合理使用的建设项目，不得批准其新增取水许可。</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>第21条</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>第21条第1款</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>从城市公共管网等取水的新建、改建、扩建高耗水建设项目应当开展节约用水评价。</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>从城市公共管网等取水的新建、改建、扩建高耗水建设项目应当开展节约用水评价。</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>第22条</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>第22条第1款</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>市、县(市、区)人民政府应当鼓励发展生态工业，严格高耗水产业项目准入，禁止新建并逐步淘汰不符合国家产业政策高耗水产业项目，引导支持企业实施节约用水技术提升改造。</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>市、县(市、区)人民政府应当鼓励发展生态工业，严格高耗水产业项目准入，禁止新建并逐步淘汰不符合国家产业政策高耗水产业项目，引导支持企业实施节约用水技术提升改造。</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>第23条</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>第23条第1款</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>地下水取用实行总量和水位双控制度，严格控制辖区地下水取水总量、水位和机井规模。旧井更新应当由机井所有权人或者管理人对报废旧井实施封井或者回填。地下水限采区内，除法律、法规、规章及相关规定的情形外，禁止新增取用地下水。</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>地下水取用实行总量和水位双控制度，严格控制辖区地下水取水总量、水位和机井规模。旧井更新应当由机井所有权人或者管理人对报废旧井实施封井或者回填。地下水限采区内，除法律、法规、规章及相关规定的情形外，禁止新增取用地下水。</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>第24条</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>第24条第1款</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>水行政主管部门应当加强对地下水取水工程的施工监管，指导施工单位建立钻井施工档案资料。施工单位不得承揽应当取得但未取得取水许可的地下水取水工程。对向未取得取水许可的地下水取水工程提供钻井服务的施工单位，依法依规实施信用惩戒。</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>水行政主管部门应当加强对地下水取水工程的施工监管，指导施工单位建立钻井施工档案资料。施工单位不得承揽应当取得但未取得取水许可的地下水取水工程。对向未取得取水许可的地下水取水工程提供钻井服务的施工单位，依法依规实施信用惩戒。</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>第25条</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>第25条第1款</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>市、县(市、区)水行政主管部门应开展地下水超采区水位预警。地下水位下降在0.5米至1.0米以内的相对下降区，在水位下降趋势未好转前，暂停相关区域新增地下水取水，并严格控制旧井更新。地下水位下降超过1.0米以上的严重下降区，在水位下降趋势未好转前，暂停相关区域新增取水和旧井更新。</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>市、县(市、区)水行政主管部门应开展地下水超采区水位预警。地下水位下降在0.5米至1.0米以内的相对下降区，在水位下降趋势未好转前，暂停相关区域新增地下水取水，并严格控制旧井更新。地下水位下降超过1.0米以上的严重下降区，在水位下降趋势未好转前，暂停相关区域新增取水和旧井更新。</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>第26条</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>第26条第1款</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>市、县(市、区)水行政主管部门应当建立健全节约用水信息公开制度，依法公开行政区内的节约用水相关规划、用水情况、节约用水指标等节约用水信息。</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>市、县(市、区)水行政主管部门应当建立健全节约用水信息公开制度，依法公开行政区内的节约用水相关规划、用水情况、节约用水指标等节约用水信息。</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>第27条</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>第27条第1款</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>用水户应当建立健全节约用水管理制度，指定节约用水管理机构或人员负责节约用水工作，规范用水台账，制定落实节约用水措施；对用水设施进行日常管护。</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>用水户应当建立健全节约用水管理制度，指定节约用水管理机构或人员负责节约用水工作，规范用水台账，制定落实节约用水措施；对用水设施进行日常管护。</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>第28条</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>第28条第1款</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>市、县(市、区)人民政府应当建立水资源节约保护督查机制。由政府督查部门组织水务、工信、住建、农业农村、自然资源等部门，对节约保护区域水资源进行督查。</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>市、县(市、区)人民政府应当建立水资源节约保护督查机制。由政府督查部门组织水务、工信、住建、农业农村、自然资源等部门，对节约保护区域水资源进行督查。</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>第29条</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>第29条第1款</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>各县(市、区)人民政府应当积极发展高效节水农业，优化调整作物种植结构，压减高耗水作物种植面积，严控取用地下水灌溉高耗水作物。禁止违法开荒，地下水超采区严格控制灌溉面积，鼓励实施轮作休耕。</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>各县(市、区)人民政府应当积极发展高效节水农业，优化调整作物种植结构，压减高耗水作物种植面积，严控取用地下水灌溉高耗水作物。禁止违法开荒，地下水超采区严格控制灌溉面积，鼓励实施轮作休耕。</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>第30条</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>第30条第1款</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>工业企业应当采用先进节约用水技术、工艺和设备，降低单位产品或产值耗水量，提高水的重复利用率。高耗水工业企业用水水平超过用水定额的，应当限期进行节约用水改造。</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>工业企业应当采用先进节约用水技术、工艺和设备，降低单位产品或产值耗水量，提高水的重复利用率。高耗水工业企业用水水平超过用水定额的，应当限期进行节约用水改造。</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>第31条第1款</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>第31条第1款</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>逐步淘汰落后的、耗水量高的工艺、设备和产品。生产者、销售者或者生产经营中的使用者应当按照规定停止生产、销售或者使用国家列入名录明令淘汰的工艺、设备和产品。</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>逐步淘汰落后的、耗水量高的工艺、设备和产品。生产者、销售者或者生产经营中的使用者应当按照规定停止生产、销售或者使用国家列入名录明令淘汰的工艺、设备和产品。</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>第31条第2款</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>第31条第2款</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>工业企业应当采取必要措施提高水资源重复利用率，降低清洁水消耗量。</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>工业企业应当采取必要措施提高水资源重复利用率，降低清洁水消耗量。</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>第32条</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>第32条第1款</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>各类园区应当推动串联用水，分质用水，一水多用，循环利用。完善水循环利用设施、集中处理及分质供水系统，形成梯级利用的耦合用水体系。</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>各类园区应当推动串联用水，分质用水，一水多用，循环利用。完善水循环利用设施、集中处理及分质供水系统，形成梯级利用的耦合用水体系。</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>第33条</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>第33条第1款</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>洗浴、洗车、游泳、水上娱乐、人工滑雪场等高耗水服务业，应当采用国家规定的低耗水、循环用水等节水技术和设备设施，用水水平应当符合行业用水定额标准。</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>洗浴、洗车、游泳、水上娱乐、人工滑雪场等高耗水服务业，应当采用国家规定的低耗水、循环用水等节水技术和设备设施，用水水平应当符合行业用水定额标准。</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>第34条</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>第34条第1款</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>绿化、环卫、消防用水设施管理单位应当严格管理取用水设施，防止水泄漏流失或者取作他用。</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>绿化、环卫、消防用水设施管理单位应当严格管理取用水设施，防止水泄漏流失或者取作他用。</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>第35条</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>第35条第1款</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>公共供水企业和自建用水管网设施的单位应当加强对用水供水设施系统的运行、维护和保养，采取措施控制漏损。公共供水管网漏损率应当低于规定的控制指标。</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>公共供水企业和自建用水管网设施的单位应当加强对用水供水设施系统的运行、维护和保养，采取措施控制漏损。公共供水管网漏损率应当低于规定的控制指标。</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>第36条</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>第36条第1款</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>鼓励倡导居民使用通过节约用水产品认证的用水器具，支持淘汰不符合节约用水标准的用水器具。</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>鼓励倡导居民使用通过节约用水产品认证的用水器具，支持淘汰不符合节约用水标准的用水器具。</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>第37条</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>第37条第1款</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>城市新区建设、旧城改造和市政基础设施建设，鼓励铺设再生水利用管网，建设再生水利用设施。新建建筑物，鼓励安装再生水利用设施。</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>城市新区建设、旧城改造和市政基础设施建设，鼓励铺设再生水利用管网，建设再生水利用设施。新建建筑物，鼓励安装再生水利用设施。</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>第38条第1款</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>第38条第1款</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>城乡绿化、建筑施工、道路降尘、环境卫生以及景观工程等用水应当优先使用符合水质标准要求的再生水。</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>城乡绿化、建筑施工、道路降尘、环境卫生以及景观工程等用水应当优先使用符合水质标准要求的再生水。</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>第38条第2款</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>第38条第2款</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>地下水地源热泵取水应当回灌，保持取灌平衡。市、县(市、区)水行政主管部门应当对取灌情况进行监督管理。</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>地下水地源热泵取水应当回灌，保持取灌平衡。市、县(市、区)水行政主管部门应当对取灌情况进行监督管理。</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>第39条</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>第39条第1款</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>违反本办法第十八条规定，未按规定开展水平衡测试、落实节约用水措施的，由市、县(市、区)水行政主管部门责令限期改正；逾期不改正的，处一万元以上三万元以下罚款。</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>违反本办法第十八条规定，未按规定开展水平衡测试、落实节约用水措施的，由市、县(市、区)水行政主管部门责令限期改正；逾期不改正的，处一万元以上三万元以下罚款。</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>第40条</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>第40条第1款</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>违反本办法第三十四条规定，从事高耗水服务业用水户用水水平超过用水定额，未在规定的期限内进行节约用水改造的，由市、县(市、区)水行政主管部门责令限期改正；拒不改正的，处五千元以上二万元以下罚款。</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>违反本办法第三十四条规定，从事高耗水服务业用水户用水水平超过用水定额，未在规定的期限内进行节约用水改造的，由市、县(市、区)水行政主管部门责令限期改正；拒不改正的，处五千元以上二万元以下罚款。</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>第41条</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>第41条第1款</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>违反本办法规定，法律、法规已有处罚规定的，从其规定。</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>违反本办法规定，法律、法规已有处罚规定的，从其规定。</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>第42条</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>第42条第1款</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>县级以上人民政府及其有关部门的工作人员在节水工作中滥用职权、玩忽职守、徇私舞弊的，依法给予处分。</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>县级以上人民政府及其有关部门的工作人员在节水工作中滥用职权、玩忽职守、徇私舞弊的，依法给予处分。</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>第43条</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>第43条第1款</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>违反本办法规定，构成违反治安管理行为的，由公安机关依法给予治安管理处罚；构成犯罪的，依法追究刑事责任。</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>违反本办法规定，构成违反治安管理行为的，由公安机关依法给予治安管理处罚；构成犯罪的，依法追究刑事责任。</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>第44条</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>第44条第1款</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>本办法自2025年5月1日起施行。</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>本办法自2025年5月1日起施行。</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>第45条</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>第45条第1款</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
